--- a/backend/src/excel_handler/files/GD30.xlsx
+++ b/backend/src/excel_handler/files/GD30.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Adcap Wise Capital Growth</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -463,7 +463,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise Capital Growth</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/backend/src/excel_handler/files/GD30.xlsx
+++ b/backend/src/excel_handler/files/GD30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,80 +436,1016 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>30-06-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>14-07-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>21-07-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise Capital Growth</t>
+          <t>Adcap Balanceado V</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6531.33</v>
+        <v>25072.29</v>
       </c>
       <c r="C2" t="n">
-        <v>13990.19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25737.43</v>
-      </c>
-      <c r="E2" t="n">
-        <v>46892.29</v>
-      </c>
+        <v>25090.14</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Adcap Wise</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6531.33</v>
+        <v>22182.17</v>
       </c>
       <c r="C3" t="n">
-        <v>13990.19</v>
+        <v>22195.69</v>
       </c>
       <c r="D3" t="n">
-        <v>25737.43</v>
+        <v>22302.76</v>
       </c>
       <c r="E3" t="n">
-        <v>46892.29</v>
+        <v>22415.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21942.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22295.93</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22089.24</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21919.01</v>
+      </c>
+      <c r="J3" t="n">
+        <v>21889.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21643.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21585.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21956.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>Alpha Acciones</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1328.99</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1257.97</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1283.86</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1299.14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1306.07</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1276.31</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1284.43</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Alpha Mega</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3424.83</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3286.13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3342.76</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3366.34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3336.67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>828.24</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Alpha Mercosur</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>97.88</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.08</v>
+      </c>
+      <c r="F6" t="n">
+        <v>85.51000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>87.45999999999999</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Alpha Recursos Naturales</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>527.5599999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>508.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>517.53</v>
+      </c>
+      <c r="E7" t="n">
+        <v>515.49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>524.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>517.47</v>
+      </c>
+      <c r="H7" t="n">
+        <v>518.66</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>360.44</v>
+      </c>
+      <c r="C8" t="n">
+        <v>361.54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362.35</v>
+      </c>
+      <c r="E8" t="n">
+        <v>362.34</v>
+      </c>
+      <c r="F8" t="n">
+        <v>360.64</v>
+      </c>
+      <c r="G8" t="n">
+        <v>359.12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>358.93</v>
+      </c>
+      <c r="I8" t="n">
+        <v>360.23</v>
+      </c>
+      <c r="J8" t="n">
+        <v>358.46</v>
+      </c>
+      <c r="K8" t="n">
+        <v>356.31</v>
+      </c>
+      <c r="L8" t="n">
+        <v>358.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>358.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>115179.42</v>
+      </c>
+      <c r="C9" t="n">
+        <v>114737.04</v>
+      </c>
+      <c r="D9" t="n">
+        <v>120498.67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>121310.11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>119802.76</v>
+      </c>
+      <c r="G9" t="n">
+        <v>120612.49</v>
+      </c>
+      <c r="H9" t="n">
+        <v>119801.44</v>
+      </c>
+      <c r="I9" t="n">
+        <v>119730.92</v>
+      </c>
+      <c r="J9" t="n">
+        <v>119582.49</v>
+      </c>
+      <c r="K9" t="n">
+        <v>118741.85</v>
+      </c>
+      <c r="L9" t="n">
+        <v>118451.72</v>
+      </c>
+      <c r="M9" t="n">
+        <v>119633.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Consultatio Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3315.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3173.27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3179.05</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Consultatio Renta Variable</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1541.79</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1482.65</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1513.62</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1489.48</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1489.92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1495.42</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1507.19</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1484.78</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1505.79</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1485.73</v>
+      </c>
+      <c r="L12" t="n">
+        <v>717.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>740.72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Delta Acciones</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1529.53</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1486.65</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1493.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1520.81</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1506.73</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Delta Internacional</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.04000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>86.89</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87.06999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>87.98</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.53</v>
+      </c>
+      <c r="G14" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>86.77</v>
+      </c>
+      <c r="I14" t="n">
+        <v>87.20999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="K14" t="n">
+        <v>86.56999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="M14" t="n">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latinoamerica</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>158.85</v>
+      </c>
+      <c r="C15" t="n">
+        <v>155.99</v>
+      </c>
+      <c r="D15" t="n">
+        <v>157.39</v>
+      </c>
+      <c r="E15" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>156.27</v>
+      </c>
+      <c r="G15" t="n">
+        <v>156.93</v>
+      </c>
+      <c r="H15" t="n">
+        <v>156.18</v>
+      </c>
+      <c r="I15" t="n">
+        <v>156.31</v>
+      </c>
+      <c r="J15" t="n">
+        <v>156.35</v>
+      </c>
+      <c r="K15" t="n">
+        <v>155.93</v>
+      </c>
+      <c r="L15" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>157.48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13515.25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13245.53</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13394.82</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13516.43</v>
+      </c>
+      <c r="F16" t="n">
+        <v>13393.02</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6667.79</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6655.32</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6679.81</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6710.83</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6640.52</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6614.66</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6605.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>288.66</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18382.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18603.71</v>
+      </c>
+      <c r="E17" t="n">
+        <v>320.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>306.25</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Gainvest Renta Variable</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>273.29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>280.16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>271.86</v>
+      </c>
+      <c r="E18" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="F18" t="n">
+        <v>277.98</v>
+      </c>
+      <c r="G18" t="n">
+        <v>274.49</v>
+      </c>
+      <c r="H18" t="n">
+        <v>274.62</v>
+      </c>
+      <c r="I18" t="n">
+        <v>272.39</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3875.47</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3837.73</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3818.22</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3903.12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Goal Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>446.26</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>HF Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>HF Acciones Lideres</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="F21" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="G21" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="H21" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="L21" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="M21" t="n">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>IAM Renta Variable</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5034.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2551.87</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1499.05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1499.35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1501.63</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1503.47</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>IEB Value</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>88.05</v>
+      </c>
+      <c r="C23" t="n">
+        <v>85.25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.02</v>
+      </c>
+      <c r="G23" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="H23" t="n">
+        <v>86.09</v>
+      </c>
+      <c r="I23" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>86.23999999999999</v>
+      </c>
+      <c r="K23" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="L23" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="M23" t="n">
+        <v>86.56999999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>659.8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>638.24</v>
+      </c>
+      <c r="D24" t="n">
+        <v>640.76</v>
+      </c>
+      <c r="E24" t="n">
+        <v>651.95</v>
+      </c>
+      <c r="F24" t="n">
+        <v>645.72</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Pionero Acciones</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2936.19</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>82.42</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8046.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10327.41</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9885.98</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9080.65</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8836.200000000001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9192.309999999999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9652.219999999999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11713.78</v>
+      </c>
+      <c r="J27" t="n">
+        <v>11981.24</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12755.73</v>
+      </c>
+      <c r="L27" t="n">
+        <v>12659.22</v>
+      </c>
+      <c r="M27" t="n">
+        <v>12797.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>6531.33</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13990.19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25737.43</v>
-      </c>
-      <c r="E4" t="n">
-        <v>46892.29</v>
+      <c r="B28" t="n">
+        <v>193113.62</v>
+      </c>
+      <c r="C28" t="n">
+        <v>206548.23</v>
+      </c>
+      <c r="D28" t="n">
+        <v>187833.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>172532.4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>167887.86</v>
+      </c>
+      <c r="G28" t="n">
+        <v>156269.35</v>
+      </c>
+      <c r="H28" t="n">
+        <v>154435.44</v>
+      </c>
+      <c r="I28" t="n">
+        <v>152279.08</v>
+      </c>
+      <c r="J28" t="n">
+        <v>155756.08</v>
+      </c>
+      <c r="K28" t="n">
+        <v>153068.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>151910.63</v>
+      </c>
+      <c r="M28" t="n">
+        <v>153566.45</v>
       </c>
     </row>
   </sheetData>
